--- a/Obj_SA.xlsx
+++ b/Obj_SA.xlsx
@@ -500,10 +500,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>11995</v>
+        <v>10995</v>
       </c>
       <c r="L2" t="n">
-        <v>9833</v>
+        <v>9013</v>
       </c>
       <c r="M2" t="n">
-        <v>2163</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="3">
@@ -549,10 +549,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="C3" t="n">
-        <v>550000</v>
+        <v>450000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8926</v>
+        <v>7926</v>
       </c>
       <c r="L3" t="n">
-        <v>7685</v>
+        <v>6824</v>
       </c>
       <c r="M3" t="n">
-        <v>1242</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4">
@@ -598,10 +598,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="C4" t="n">
-        <v>610000</v>
+        <v>530000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -633,34 +633,38 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>16178</v>
+        <v>16378</v>
       </c>
       <c r="L4" t="n">
-        <v>10628</v>
+        <v>10759</v>
       </c>
       <c r="M4" t="n">
-        <v>5551</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>230000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>560000</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -678,34 +682,38 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15985</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9145</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>580000</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -723,34 +731,38 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4915</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4086</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>270000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>600000</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -995,13 +1007,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>37100</v>
+        <v>56200</v>
       </c>
       <c r="L12" t="n">
-        <v>28145</v>
+        <v>39827</v>
       </c>
       <c r="M12" t="n">
-        <v>8955</v>
+        <v>16373</v>
       </c>
     </row>
   </sheetData>
